--- a/mkgu_accounts_list.xlsx
+++ b/mkgu_accounts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Python\MKGU_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iereh\Desktop\Python projects\Parse-MKGU-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEEEB4-1305-4188-BC3E-6EBD3E79DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E56A66-90C5-4300-BE6B-1C95DFC81BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mkgu_accounts_list" sheetId="1" r:id="rId1"/>
@@ -435,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -503,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -527,25 +527,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
